--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 5.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 5.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,7 +522,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,7 +545,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -592,7 +592,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -616,7 +616,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -640,7 +640,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -666,7 +666,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -712,7 +712,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -735,7 +735,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -784,7 +784,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -834,7 +834,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -858,7 +858,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -881,7 +881,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -905,7 +905,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -951,7 +951,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -997,7 +997,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1022,7 +1022,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1046,7 +1046,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1070,7 +1070,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1190,7 +1190,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1213,7 +1213,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1236,7 +1236,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1330,7 +1330,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1353,7 +1353,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1424,7 +1424,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1447,7 +1447,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1516,7 +1516,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1539,7 +1539,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1562,7 +1562,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1585,7 +1585,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1608,7 +1608,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1677,7 +1677,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1723,7 +1723,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1747,7 +1747,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1772,7 +1772,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1824,7 +1824,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1847,7 +1847,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
